--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T14:30:00+00:00</t>
+    <t>2025-06-03T15:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T15:17:23+00:00</t>
+    <t>2025-06-03T15:24:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T15:24:37+00:00</t>
+    <t>2025-06-04T08:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:16:37+00:00</t>
+    <t>2025-06-04T08:27:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:27:13+00:00</t>
+    <t>2025-06-04T08:35:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:35:18+00:00</t>
+    <t>2025-06-04T08:43:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:43:19+00:00</t>
+    <t>2025-06-04T08:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:56:07+00:00</t>
+    <t>2025-06-04T09:35:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T09:35:36+00:00</t>
+    <t>2025-08-28T12:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T12:22:25+00:00</t>
+    <t>2025-08-28T12:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T12:34:04+00:00</t>
+    <t>2025-08-28T14:22:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T14:22:33+00:00</t>
+    <t>2025-08-28T14:36:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T14:36:09+00:00</t>
+    <t>2025-08-29T08:36:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T08:36:57+00:00</t>
+    <t>2025-08-29T09:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T09:46:03+00:00</t>
+    <t>2025-09-03T11:52:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T11:52:57+00:00</t>
+    <t>2025-09-04T12:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T12:43:39+00:00</t>
+    <t>2025-09-05T10:27:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T10:27:45+00:00</t>
+    <t>2025-09-05T14:06:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T14:06:57+00:00</t>
+    <t>2025-09-05T16:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T16:38:52+00:00</t>
+    <t>2025-09-08T06:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T06:26:35+00:00</t>
+    <t>2025-09-08T07:31:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T07:31:14+00:00</t>
+    <t>2025-09-08T10:17:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T10:17:51+00:00</t>
+    <t>2025-09-08T16:35:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="376">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T16:35:28+00:00</t>
+    <t>2025-09-09T08:15:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -591,7 +591,7 @@
     <t>Provenance.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|5.0.0)
 </t>
   </si>
   <si>
@@ -676,7 +676,7 @@
     <t>The activity that took place.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/provenance-activity-type</t>
+    <t>http://hl7.org/fhir/ValueSet/provenance-activity-type|5.0.0</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -691,7 +691,7 @@
     <t>Provenance.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest|Task)
+    <t xml:space="preserve">Reference(CarePlan|5.0.0|DeviceRequest|5.0.0|ImmunizationRecommendation|5.0.0|MedicationRequest|5.0.0|NutritionOrder|5.0.0|ServiceRequest|5.0.0|Task|5.0.0)
 </t>
   </si>
   <si>
@@ -704,7 +704,7 @@
     <t>Provenance.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(Patient|5.0.0)
 </t>
   </si>
   <si>
@@ -730,6 +730,10 @@
   </si>
   <si>
     <t>Provenance.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter|5.0.0)
+</t>
   </si>
   <si>
     <t>Encounter within which this event occurred or which the event is tightly associated</t>
@@ -850,7 +854,7 @@
     <t>The type of participation that a provenance agent played with respect to the activity.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/participation-role-type</t>
+    <t>http://hl7.org/fhir/ValueSet/participation-role-type|5.0.0</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -883,7 +887,7 @@
     <t>The role that a provenance agent played with respect to the activity.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-role-type</t>
+    <t>http://hl7.org/fhir/ValueSet/security-role-type|5.0.0</t>
   </si>
   <si>
     <t>.typecode</t>
@@ -895,7 +899,7 @@
     <t>Provenance.agent.who</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|Device|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|5.0.0|PractitionerRole|5.0.0|Organization|5.0.0|CareTeam|5.0.0|Patient|5.0.0|Device|5.0.0|RelatedPerson|5.0.0)
 </t>
   </si>
   <si>
@@ -921,7 +925,7 @@
     <t>Provenance.agent.onBehalfOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient)
+    <t xml:space="preserve">Reference(Practitioner|5.0.0|PractitionerRole|5.0.0|Organization|5.0.0|CareTeam|5.0.0|Patient|5.0.0)
 </t>
   </si>
   <si>
@@ -1033,7 +1037,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|5.0.0</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1147,7 +1151,7 @@
     <t>Provenance.entity.what</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|5.0.0)
 </t>
   </si>
   <si>
@@ -1533,7 +1537,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="99.14453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="130.84765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1548,7 +1552,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="68.2109375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="45.015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="46.74609375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -3818,13 +3822,13 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>151</v>
+        <v>229</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3907,10 +3911,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3933,19 +3937,19 @@
         <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -3982,17 +3986,17 @@
         <v>20</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>91</v>
@@ -4004,30 +4008,30 @@
         <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4050,13 +4054,13 @@
         <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4107,7 +4111,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4116,7 +4120,7 @@
         <v>91</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>20</v>
@@ -4128,7 +4132,7 @@
         <v>20</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>20</v>
@@ -4139,10 +4143,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4171,7 +4175,7 @@
         <v>140</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N23" t="s" s="2">
         <v>142</v>
@@ -4224,7 +4228,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4245,7 +4249,7 @@
         <v>20</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>20</v>
@@ -4256,14 +4260,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4285,10 +4289,10 @@
         <v>139</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N24" t="s" s="2">
         <v>142</v>
@@ -4343,7 +4347,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4375,10 +4379,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4404,16 +4408,16 @@
         <v>207</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4441,10 +4445,10 @@
         <v>198</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>20</v>
@@ -4462,7 +4466,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4477,27 +4481,27 @@
         <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4523,16 +4527,16 @@
         <v>207</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -4560,10 +4564,10 @@
         <v>198</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>20</v>
@@ -4581,7 +4585,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4602,21 +4606,21 @@
         <v>20</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4639,13 +4643,13 @@
         <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4696,7 +4700,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>91</v>
@@ -4705,19 +4709,19 @@
         <v>91</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>20</v>
@@ -4728,10 +4732,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4754,13 +4758,13 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4811,7 +4815,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4820,7 +4824,7 @@
         <v>91</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>103</v>
@@ -4832,7 +4836,7 @@
         <v>20</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>20</v>
@@ -4843,13 +4847,13 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>20</v>
@@ -4871,19 +4875,19 @@
         <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -4932,7 +4936,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>91</v>
@@ -4944,30 +4948,30 @@
         <v>20</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4990,13 +4994,13 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5047,7 +5051,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5056,7 +5060,7 @@
         <v>91</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>20</v>
@@ -5068,7 +5072,7 @@
         <v>20</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>20</v>
@@ -5079,10 +5083,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5111,7 +5115,7 @@
         <v>140</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N31" t="s" s="2">
         <v>142</v>
@@ -5164,7 +5168,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5185,7 +5189,7 @@
         <v>20</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>20</v>
@@ -5196,14 +5200,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5225,10 +5229,10 @@
         <v>139</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N32" t="s" s="2">
         <v>142</v>
@@ -5283,7 +5287,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5315,10 +5319,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5344,16 +5348,16 @@
         <v>207</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -5363,7 +5367,7 @@
         <v>20</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>20</v>
@@ -5381,10 +5385,10 @@
         <v>198</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>20</v>
@@ -5402,7 +5406,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5417,27 +5421,27 @@
         <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5463,16 +5467,16 @@
         <v>207</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -5500,10 +5504,10 @@
         <v>198</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>20</v>
@@ -5521,7 +5525,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5542,21 +5546,21 @@
         <v>20</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5579,13 +5583,13 @@
         <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5636,7 +5640,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>91</v>
@@ -5645,19 +5649,19 @@
         <v>91</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>20</v>
@@ -5668,10 +5672,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5697,10 +5701,10 @@
         <v>93</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5751,7 +5755,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5760,7 +5764,7 @@
         <v>91</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>20</v>
@@ -5772,7 +5776,7 @@
         <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>20</v>
@@ -5783,10 +5787,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5815,7 +5819,7 @@
         <v>140</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>142</v>
@@ -5856,19 +5860,19 @@
         <v>20</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5889,7 +5893,7 @@
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>20</v>
@@ -5900,10 +5904,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5926,16 +5930,16 @@
         <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5985,7 +5989,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -5994,7 +5998,7 @@
         <v>91</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>103</v>
@@ -6017,10 +6021,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6046,13 +6050,13 @@
         <v>105</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6078,13 +6082,13 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -6102,7 +6106,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6134,10 +6138,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6160,16 +6164,16 @@
         <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6219,7 +6223,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6228,7 +6232,7 @@
         <v>91</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>103</v>
@@ -6240,7 +6244,7 @@
         <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>20</v>
@@ -6251,10 +6255,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6277,16 +6281,16 @@
         <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6336,7 +6340,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6345,7 +6349,7 @@
         <v>91</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>103</v>
@@ -6368,10 +6372,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6394,13 +6398,13 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6451,7 +6455,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6460,7 +6464,7 @@
         <v>91</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>103</v>
@@ -6472,7 +6476,7 @@
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>20</v>
@@ -6483,10 +6487,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6509,13 +6513,13 @@
         <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6566,7 +6570,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6587,21 +6591,21 @@
         <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6624,13 +6628,13 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6681,7 +6685,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6690,7 +6694,7 @@
         <v>91</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>20</v>
@@ -6702,7 +6706,7 @@
         <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>20</v>
@@ -6713,10 +6717,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6745,7 +6749,7 @@
         <v>140</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>142</v>
@@ -6798,7 +6802,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6819,7 +6823,7 @@
         <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>20</v>
@@ -6830,14 +6834,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6859,10 +6863,10 @@
         <v>139</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>142</v>
@@ -6917,7 +6921,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -6949,10 +6953,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6978,10 +6982,10 @@
         <v>111</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7011,10 +7015,10 @@
         <v>115</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>20</v>
@@ -7032,7 +7036,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>91</v>
@@ -7053,21 +7057,21 @@
         <v>20</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7090,16 +7094,16 @@
         <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7149,7 +7153,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>91</v>
@@ -7170,7 +7174,7 @@
         <v>20</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>227</v>
@@ -7181,10 +7185,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7210,13 +7214,13 @@
         <v>81</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7266,7 +7270,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7287,21 +7291,21 @@
         <v>20</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7324,13 +7328,13 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7381,7 +7385,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7402,7 +7406,7 @@
         <v>20</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T08:15:52+00:00</t>
+    <t>2025-09-09T09:28:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T09:28:44+00:00</t>
+    <t>2025-09-12T08:57:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T08:57:32+00:00</t>
+    <t>2025-09-15T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T11:30:19+00:00</t>
+    <t>2025-09-15T14:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T14:05:10+00:00</t>
+    <t>2025-09-17T09:29:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T09:29:40+00:00</t>
+    <t>2025-09-17T10:41:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T10:41:45+00:00</t>
+    <t>2025-09-17T12:21:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T12:21:11+00:00</t>
+    <t>2025-09-17T16:26:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T16:26:28+00:00</t>
+    <t>2025-09-17T16:58:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T16:58:51+00:00</t>
+    <t>2025-09-22T08:26:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:26:26+00:00</t>
+    <t>2025-09-22T08:28:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:28:48+00:00</t>
+    <t>2025-09-22T08:30:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:30:29+00:00</t>
+    <t>2025-09-22T08:34:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:34:05+00:00</t>
+    <t>2025-09-22T09:39:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T09:39:31+00:00</t>
+    <t>2025-09-22T09:39:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T09:39:40+00:00</t>
+    <t>2025-09-22T11:46:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T11:46:58+00:00</t>
+    <t>2025-09-22T13:11:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T13:11:45+00:00</t>
+    <t>2025-09-22T14:03:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T14:03:07+00:00</t>
+    <t>2025-09-22T15:14:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T15:14:25+00:00</t>
+    <t>2025-09-22T16:06:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T16:06:01+00:00</t>
+    <t>2025-09-22T16:51:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T16:51:16+00:00</t>
+    <t>2025-09-22T17:06:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:06:55+00:00</t>
+    <t>2025-09-22T17:32:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:32:58+00:00</t>
+    <t>2025-09-22T17:48:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:48:18+00:00</t>
+    <t>2025-09-22T18:03:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T18:03:45+00:00</t>
+    <t>2025-09-23T08:18:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:18:09+00:00</t>
+    <t>2025-09-23T08:32:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:32:43+00:00</t>
+    <t>2025-09-23T08:41:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:41:48+00:00</t>
+    <t>2025-09-23T08:42:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:42:22+00:00</t>
+    <t>2025-09-23T08:51:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:51:27+00:00</t>
+    <t>2025-09-23T08:52:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:52:02+00:00</t>
+    <t>2025-09-23T10:06:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:06:45+00:00</t>
+    <t>2025-09-23T10:19:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:19:12+00:00</t>
+    <t>2025-09-23T10:19:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:19:52+00:00</t>
+    <t>2025-09-23T10:20:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:20:32+00:00</t>
+    <t>2025-09-23T10:26:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:26:15+00:00</t>
+    <t>2025-09-23T10:43:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:43:17+00:00</t>
+    <t>2025-09-23T11:03:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T11:03:07+00:00</t>
+    <t>2025-09-23T11:44:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T11:44:28+00:00</t>
+    <t>2025-09-23T12:00:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:00:42+00:00</t>
+    <t>2025-09-23T12:55:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:55:27+00:00</t>
+    <t>2025-09-23T13:35:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T13:35:37+00:00</t>
+    <t>2025-09-23T14:01:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:01:22+00:00</t>
+    <t>2025-09-23T14:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:15:20+00:00</t>
+    <t>2025-09-23T14:32:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:32:14+00:00</t>
+    <t>2025-09-23T16:14:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T16:14:11+00:00</t>
+    <t>2025-09-23T16:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T16:36:06+00:00</t>
+    <t>2025-09-23T17:01:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T17:01:11+00:00</t>
+    <t>2025-09-24T09:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T09:25:22+00:00</t>
+    <t>2025-09-24T10:35:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T10:35:41+00:00</t>
+    <t>2025-09-24T10:48:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T10:48:34+00:00</t>
+    <t>2025-09-24T11:09:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T11:09:16+00:00</t>
+    <t>2025-09-24T16:01:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T16:01:08+00:00</t>
+    <t>2025-09-24T16:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T16:38:52+00:00</t>
+    <t>2025-09-25T09:51:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T09:51:46+00:00</t>
+    <t>2025-09-25T09:59:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T09:59:12+00:00</t>
+    <t>2025-09-25T10:18:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T10:18:49+00:00</t>
+    <t>2025-09-25T10:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T10:34:09+00:00</t>
+    <t>2025-09-25T11:37:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T11:37:39+00:00</t>
+    <t>2025-09-25T13:52:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T13:52:06+00:00</t>
+    <t>2025-09-25T14:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T14:17:34+00:00</t>
+    <t>2025-09-25T15:24:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T15:24:58+00:00</t>
+    <t>2025-09-26T07:24:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T07:24:51+00:00</t>
+    <t>2025-09-26T07:49:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T07:49:53+00:00</t>
+    <t>2025-09-26T08:03:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T08:03:06+00:00</t>
+    <t>2025-09-29T10:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T10:55:47+00:00</t>
+    <t>2025-09-29T11:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:14:34+00:00</t>
+    <t>2025-09-29T11:58:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:58:57+00:00</t>
+    <t>2025-09-29T12:25:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T12:25:49+00:00</t>
+    <t>2025-09-29T16:14:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T16:14:38+00:00</t>
+    <t>2025-09-30T09:58:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-30T09:58:20+00:00</t>
+    <t>2025-10-01T11:45:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2747,7 +2747,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>150</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>294</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>302</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>335</v>
       </c>
@@ -7417,12 +7417,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO50">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T11:45:35+00:00</t>
+    <t>2025-10-02T08:30:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:30:31+00:00</t>
+    <t>2025-10-02T08:31:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:31:49+00:00</t>
+    <t>2025-10-02T08:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:40:06+00:00</t>
+    <t>2025-10-02T08:55:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:55:17+00:00</t>
+    <t>2025-10-02T09:37:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T09:37:00+00:00</t>
+    <t>2025-10-02T10:13:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:13:04+00:00</t>
+    <t>2025-10-02T10:17:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:17:19+00:00</t>
+    <t>2025-10-02T10:35:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:35:00+00:00</t>
+    <t>2025-10-02T10:46:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:46:31+00:00</t>
+    <t>2025-10-02T10:50:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:50:34+00:00</t>
+    <t>2025-10-02T10:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:55:47+00:00</t>
+    <t>2025-10-02T11:00:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:00:11+00:00</t>
+    <t>2025-10-02T11:01:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:01:02+00:00</t>
+    <t>2025-10-02T11:30:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:30:52+00:00</t>
+    <t>2025-10-02T11:45:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:45:35+00:00</t>
+    <t>2025-10-02T11:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:46:56+00:00</t>
+    <t>2025-10-02T12:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:55:14+00:00</t>
+    <t>2025-10-02T12:55:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:55:42+00:00</t>
+    <t>2025-10-03T09:35:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T09:35:04+00:00</t>
+    <t>2025-10-03T10:22:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T10:22:41+00:00</t>
+    <t>2025-10-03T16:25:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:25:29+00:00</t>
+    <t>2025-10-03T16:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:32:49+00:00</t>
+    <t>2025-10-06T07:31:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T07:31:52+00:00</t>
+    <t>2025-10-07T10:46:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T10:46:08+00:00</t>
+    <t>2025-10-07T11:37:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T11:37:10+00:00</t>
+    <t>2025-10-07T12:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-encounter-provider-provenance.xlsx
+++ b/StructureDefinition-encounter-provider-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T12:40:55+00:00</t>
+    <t>2025-10-07T16:03:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
